--- a/film data.xlsx
+++ b/film data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\film\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABBDE764-5AD6-4421-BB0A-F1E6271FCCCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCB07B9-2439-4AAC-84AA-2C65C4AA9059}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{50CC5D43-5033-454B-A97D-D4DA8BA71CF5}"/>
   </bookViews>
@@ -2241,8 +2241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74376342-9F15-4949-BBB9-C963C837D496}">
   <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A87" sqref="A86:XFD87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2250,8 +2250,7 @@
     <col min="1" max="1" width="15.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="41.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="2"/>
-    <col min="4" max="4" width="16.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" style="2" customWidth="1"/>
+    <col min="4" max="5" width="42.140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="2"/>
     <col min="7" max="7" width="66.28515625" style="2" customWidth="1"/>
     <col min="8" max="8" width="18.5703125" style="2" customWidth="1"/>
@@ -2300,7 +2299,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>1</v>
       </c>
@@ -2336,7 +2335,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>2</v>
       </c>
@@ -2372,7 +2371,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="57" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>3</v>
       </c>
@@ -2408,7 +2407,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>4</v>
       </c>
@@ -2444,7 +2443,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>5</v>
       </c>
@@ -2480,7 +2479,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>6</v>
       </c>
@@ -2512,7 +2511,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="190.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>7</v>
       </c>
@@ -2548,7 +2547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="279" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>8</v>
       </c>
@@ -2584,7 +2583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>9</v>
       </c>
@@ -2620,7 +2619,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="171" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>10</v>
       </c>
@@ -2656,7 +2655,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>11</v>
       </c>
@@ -2690,7 +2689,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="171" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>12</v>
       </c>
@@ -2726,7 +2725,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>13</v>
       </c>
@@ -2760,7 +2759,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>14</v>
       </c>
@@ -2796,7 +2795,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="57" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>15</v>
       </c>
@@ -2830,7 +2829,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>16</v>
       </c>
